--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Cd200-Cd200r1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Cd200-Cd200r1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Cd200r1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>63.4088178817401</v>
+        <v>66.09348033333333</v>
       </c>
       <c r="H2">
-        <v>63.4088178817401</v>
+        <v>198.280441</v>
       </c>
       <c r="I2">
-        <v>0.7461780212597526</v>
+        <v>0.7128403622257815</v>
       </c>
       <c r="J2">
-        <v>0.7461780212597526</v>
+        <v>0.7128403622257816</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>21.4134595352924</v>
+        <v>0.08012266666666666</v>
       </c>
       <c r="N2">
-        <v>21.4134595352924</v>
+        <v>0.240368</v>
       </c>
       <c r="O2">
-        <v>0.6072617942991921</v>
+        <v>0.00220861306352985</v>
       </c>
       <c r="P2">
-        <v>0.6072617942991921</v>
+        <v>0.002208613063529849</v>
       </c>
       <c r="Q2">
-        <v>1357.802155891367</v>
+        <v>5.295585893587555</v>
       </c>
       <c r="R2">
-        <v>1357.802155891367</v>
+        <v>47.660273042288</v>
       </c>
       <c r="S2">
-        <v>0.4531254040568181</v>
+        <v>0.001574388536223211</v>
       </c>
       <c r="T2">
-        <v>0.4531254040568181</v>
+        <v>0.001574388536223211</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,433 +587,1177 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>63.4088178817401</v>
+        <v>66.09348033333333</v>
       </c>
       <c r="H3">
-        <v>63.4088178817401</v>
+        <v>198.280441</v>
       </c>
       <c r="I3">
-        <v>0.7461780212597526</v>
+        <v>0.7128403622257815</v>
       </c>
       <c r="J3">
-        <v>0.7461780212597526</v>
+        <v>0.7128403622257816</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>13.8488601698432</v>
+        <v>21.488282</v>
       </c>
       <c r="N3">
-        <v>13.8488601698432</v>
+        <v>64.46484600000001</v>
       </c>
       <c r="O3">
-        <v>0.392738205700808</v>
+        <v>0.5923330102760767</v>
       </c>
       <c r="P3">
-        <v>0.392738205700808</v>
+        <v>0.5923330102760765</v>
       </c>
       <c r="Q3">
-        <v>878.1398523792717</v>
+        <v>1420.235343764121</v>
       </c>
       <c r="R3">
-        <v>878.1398523792717</v>
+        <v>12782.11809387709</v>
       </c>
       <c r="S3">
-        <v>0.2930526172029346</v>
+        <v>0.4222388776034861</v>
       </c>
       <c r="T3">
-        <v>0.2930526172029346</v>
+        <v>0.4222388776034861</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.75260690842871</v>
+        <v>66.09348033333333</v>
       </c>
       <c r="H4">
-        <v>2.75260690842871</v>
+        <v>198.280441</v>
       </c>
       <c r="I4">
-        <v>0.03239194239621259</v>
+        <v>0.7128403622257815</v>
       </c>
       <c r="J4">
-        <v>0.03239194239621259</v>
+        <v>0.7128403622257816</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.4134595352924</v>
+        <v>14.66730366666666</v>
       </c>
       <c r="N4">
-        <v>21.4134595352924</v>
+        <v>44.00191099999999</v>
       </c>
       <c r="O4">
-        <v>0.6072617942991921</v>
+        <v>0.4043100390021874</v>
       </c>
       <c r="P4">
-        <v>0.6072617942991921</v>
+        <v>0.4043100390021873</v>
       </c>
       <c r="Q4">
-        <v>58.9428366502045</v>
+        <v>969.413146435861</v>
       </c>
       <c r="R4">
-        <v>58.9428366502045</v>
+        <v>8724.718317922749</v>
       </c>
       <c r="S4">
-        <v>0.01967038906036013</v>
+        <v>0.2882085146538391</v>
       </c>
       <c r="T4">
-        <v>0.01967038906036013</v>
+        <v>0.2882085146538391</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.75260690842871</v>
+        <v>66.09348033333333</v>
       </c>
       <c r="H5">
-        <v>2.75260690842871</v>
+        <v>198.280441</v>
       </c>
       <c r="I5">
-        <v>0.03239194239621259</v>
+        <v>0.7128403622257815</v>
       </c>
       <c r="J5">
-        <v>0.03239194239621259</v>
+        <v>0.7128403622257816</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>13.8488601698432</v>
+        <v>0.04165866666666667</v>
       </c>
       <c r="N5">
-        <v>13.8488601698432</v>
+        <v>0.124976</v>
       </c>
       <c r="O5">
-        <v>0.392738205700808</v>
+        <v>0.001148337658206194</v>
       </c>
       <c r="P5">
-        <v>0.392738205700808</v>
+        <v>0.001148337658206194</v>
       </c>
       <c r="Q5">
-        <v>38.12046817737359</v>
+        <v>2.753366266046223</v>
       </c>
       <c r="R5">
-        <v>38.12046817737359</v>
+        <v>24.780296394416</v>
       </c>
       <c r="S5">
-        <v>0.01272155333585247</v>
+        <v>0.0008185814322332093</v>
       </c>
       <c r="T5">
-        <v>0.01272155333585247</v>
+        <v>0.0008185814322332093</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.56587930983901</v>
+        <v>2.879461333333333</v>
       </c>
       <c r="H6">
-        <v>2.56587930983901</v>
+        <v>8.638383999999999</v>
       </c>
       <c r="I6">
-        <v>0.03019458192357127</v>
+        <v>0.03105595664680509</v>
       </c>
       <c r="J6">
-        <v>0.03019458192357127</v>
+        <v>0.03105595664680509</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>21.4134595352924</v>
+        <v>0.08012266666666666</v>
       </c>
       <c r="N6">
-        <v>21.4134595352924</v>
+        <v>0.240368</v>
       </c>
       <c r="O6">
-        <v>0.6072617942991921</v>
+        <v>0.00220861306352985</v>
       </c>
       <c r="P6">
-        <v>0.6072617942991921</v>
+        <v>0.002208613063529849</v>
       </c>
       <c r="Q6">
-        <v>54.94435277368163</v>
+        <v>0.2307101205902222</v>
       </c>
       <c r="R6">
-        <v>54.94435277368163</v>
+        <v>2.076391085312</v>
       </c>
       <c r="S6">
-        <v>0.01833601599702184</v>
+        <v>6.85905915505504E-05</v>
       </c>
       <c r="T6">
-        <v>0.01833601599702184</v>
+        <v>6.859059155055038E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.56587930983901</v>
+        <v>2.879461333333333</v>
       </c>
       <c r="H7">
-        <v>2.56587930983901</v>
+        <v>8.638383999999999</v>
       </c>
       <c r="I7">
-        <v>0.03019458192357127</v>
+        <v>0.03105595664680509</v>
       </c>
       <c r="J7">
-        <v>0.03019458192357127</v>
+        <v>0.03105595664680509</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.8488601698432</v>
+        <v>21.488282</v>
       </c>
       <c r="N7">
-        <v>13.8488601698432</v>
+        <v>64.46484600000001</v>
       </c>
       <c r="O7">
-        <v>0.392738205700808</v>
+        <v>0.5923330102760767</v>
       </c>
       <c r="P7">
-        <v>0.392738205700808</v>
+        <v>0.5923330102760765</v>
       </c>
       <c r="Q7">
-        <v>35.53450377465422</v>
+        <v>61.87467713876266</v>
       </c>
       <c r="R7">
-        <v>35.53450377465422</v>
+        <v>556.872094248864</v>
       </c>
       <c r="S7">
-        <v>0.01185856592654943</v>
+        <v>0.01839546828760539</v>
       </c>
       <c r="T7">
-        <v>0.01185856592654943</v>
+        <v>0.01839546828760539</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>16.2508325847054</v>
+        <v>2.879461333333333</v>
       </c>
       <c r="H8">
-        <v>16.2508325847054</v>
+        <v>8.638383999999999</v>
       </c>
       <c r="I8">
-        <v>0.1912354544204636</v>
+        <v>0.03105595664680509</v>
       </c>
       <c r="J8">
-        <v>0.1912354544204636</v>
+        <v>0.03105595664680509</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.4134595352924</v>
+        <v>14.66730366666666</v>
       </c>
       <c r="N8">
-        <v>21.4134595352924</v>
+        <v>44.00191099999999</v>
       </c>
       <c r="O8">
-        <v>0.6072617942991921</v>
+        <v>0.4043100390021874</v>
       </c>
       <c r="P8">
-        <v>0.6072617942991921</v>
+        <v>0.4043100390021873</v>
       </c>
       <c r="Q8">
-        <v>347.9865459674003</v>
+        <v>42.23393377242488</v>
       </c>
       <c r="R8">
-        <v>347.9865459674003</v>
+        <v>380.1054039518239</v>
       </c>
       <c r="S8">
-        <v>0.1161299851849921</v>
+        <v>0.01255623504312001</v>
       </c>
       <c r="T8">
-        <v>0.1161299851849921</v>
+        <v>0.01255623504312001</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.879461333333333</v>
+      </c>
+      <c r="H9">
+        <v>8.638383999999999</v>
+      </c>
+      <c r="I9">
+        <v>0.03105595664680509</v>
+      </c>
+      <c r="J9">
+        <v>0.03105595664680509</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.04165866666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.124976</v>
+      </c>
+      <c r="O9">
+        <v>0.001148337658206194</v>
+      </c>
+      <c r="P9">
+        <v>0.001148337658206194</v>
+      </c>
+      <c r="Q9">
+        <v>0.1199545198648889</v>
+      </c>
+      <c r="R9">
+        <v>1.079590678784</v>
+      </c>
+      <c r="S9">
+        <v>3.566272452914526E-05</v>
+      </c>
+      <c r="T9">
+        <v>3.566272452914525E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2.566549333333333</v>
+      </c>
+      <c r="H10">
+        <v>7.699648</v>
+      </c>
+      <c r="I10">
+        <v>0.02768109573314402</v>
+      </c>
+      <c r="J10">
+        <v>0.02768109573314402</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.08012266666666666</v>
+      </c>
+      <c r="N10">
+        <v>0.240368</v>
+      </c>
+      <c r="O10">
+        <v>0.00220861306352985</v>
+      </c>
+      <c r="P10">
+        <v>0.002208613063529849</v>
+      </c>
+      <c r="Q10">
+        <v>0.2056387767182222</v>
+      </c>
+      <c r="R10">
+        <v>1.850748990464</v>
+      </c>
+      <c r="S10">
+        <v>6.113682964904226E-05</v>
+      </c>
+      <c r="T10">
+        <v>6.113682964904225E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2.566549333333333</v>
+      </c>
+      <c r="H11">
+        <v>7.699648</v>
+      </c>
+      <c r="I11">
+        <v>0.02768109573314402</v>
+      </c>
+      <c r="J11">
+        <v>0.02768109573314402</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>21.488282</v>
+      </c>
+      <c r="N11">
+        <v>64.46484600000001</v>
+      </c>
+      <c r="O11">
+        <v>0.5923330102760767</v>
+      </c>
+      <c r="P11">
+        <v>0.5923330102760765</v>
+      </c>
+      <c r="Q11">
+        <v>55.15073584157867</v>
+      </c>
+      <c r="R11">
+        <v>496.3566225742081</v>
+      </c>
+      <c r="S11">
+        <v>0.01639642676335346</v>
+      </c>
+      <c r="T11">
+        <v>0.01639642676335346</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2.566549333333333</v>
+      </c>
+      <c r="H12">
+        <v>7.699648</v>
+      </c>
+      <c r="I12">
+        <v>0.02768109573314402</v>
+      </c>
+      <c r="J12">
+        <v>0.02768109573314402</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>14.66730366666666</v>
+      </c>
+      <c r="N12">
+        <v>44.00191099999999</v>
+      </c>
+      <c r="O12">
+        <v>0.4043100390021874</v>
+      </c>
+      <c r="P12">
+        <v>0.4043100390021873</v>
+      </c>
+      <c r="Q12">
+        <v>37.64435844748088</v>
+      </c>
+      <c r="R12">
+        <v>338.799226027328</v>
+      </c>
+      <c r="S12">
+        <v>0.01119174489549074</v>
+      </c>
+      <c r="T12">
+        <v>0.01119174489549074</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>16.2508325847054</v>
-      </c>
-      <c r="H9">
-        <v>16.2508325847054</v>
-      </c>
-      <c r="I9">
-        <v>0.1912354544204636</v>
-      </c>
-      <c r="J9">
-        <v>0.1912354544204636</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>13.8488601698432</v>
-      </c>
-      <c r="N9">
-        <v>13.8488601698432</v>
-      </c>
-      <c r="O9">
-        <v>0.392738205700808</v>
-      </c>
-      <c r="P9">
-        <v>0.392738205700808</v>
-      </c>
-      <c r="Q9">
-        <v>225.0555081091166</v>
-      </c>
-      <c r="R9">
-        <v>225.0555081091166</v>
-      </c>
-      <c r="S9">
-        <v>0.07510546923547154</v>
-      </c>
-      <c r="T9">
-        <v>0.07510546923547154</v>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.566549333333333</v>
+      </c>
+      <c r="H13">
+        <v>7.699648</v>
+      </c>
+      <c r="I13">
+        <v>0.02768109573314402</v>
+      </c>
+      <c r="J13">
+        <v>0.02768109573314402</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.04165866666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.124976</v>
+      </c>
+      <c r="O13">
+        <v>0.001148337658206194</v>
+      </c>
+      <c r="P13">
+        <v>0.001148337658206194</v>
+      </c>
+      <c r="Q13">
+        <v>0.1069190231608889</v>
+      </c>
+      <c r="R13">
+        <v>0.962271208448</v>
+      </c>
+      <c r="S13">
+        <v>3.178724465078008E-05</v>
+      </c>
+      <c r="T13">
+        <v>3.178724465078008E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>1.070464333333333</v>
+      </c>
+      <c r="H14">
+        <v>3.211393</v>
+      </c>
+      <c r="I14">
+        <v>0.0115453170157582</v>
+      </c>
+      <c r="J14">
+        <v>0.0115453170157582</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.08012266666666666</v>
+      </c>
+      <c r="N14">
+        <v>0.240368</v>
+      </c>
+      <c r="O14">
+        <v>0.00220861306352985</v>
+      </c>
+      <c r="P14">
+        <v>0.002208613063529849</v>
+      </c>
+      <c r="Q14">
+        <v>0.08576845695822223</v>
+      </c>
+      <c r="R14">
+        <v>0.7719161126240001</v>
+      </c>
+      <c r="S14">
+        <v>2.549913798359702E-05</v>
+      </c>
+      <c r="T14">
+        <v>2.549913798359702E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>1.070464333333333</v>
+      </c>
+      <c r="H15">
+        <v>3.211393</v>
+      </c>
+      <c r="I15">
+        <v>0.0115453170157582</v>
+      </c>
+      <c r="J15">
+        <v>0.0115453170157582</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>21.488282</v>
+      </c>
+      <c r="N15">
+        <v>64.46484600000001</v>
+      </c>
+      <c r="O15">
+        <v>0.5923330102760767</v>
+      </c>
+      <c r="P15">
+        <v>0.5923330102760765</v>
+      </c>
+      <c r="Q15">
+        <v>23.00243946560867</v>
+      </c>
+      <c r="R15">
+        <v>207.021955190478</v>
+      </c>
+      <c r="S15">
+        <v>0.006838672382535663</v>
+      </c>
+      <c r="T15">
+        <v>0.006838672382535663</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>1.070464333333333</v>
+      </c>
+      <c r="H16">
+        <v>3.211393</v>
+      </c>
+      <c r="I16">
+        <v>0.0115453170157582</v>
+      </c>
+      <c r="J16">
+        <v>0.0115453170157582</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>14.66730366666666</v>
+      </c>
+      <c r="N16">
+        <v>44.00191099999999</v>
+      </c>
+      <c r="O16">
+        <v>0.4043100390021874</v>
+      </c>
+      <c r="P16">
+        <v>0.4043100390021873</v>
+      </c>
+      <c r="Q16">
+        <v>15.70082544133589</v>
+      </c>
+      <c r="R16">
+        <v>141.307428972023</v>
+      </c>
+      <c r="S16">
+        <v>0.004667887572933815</v>
+      </c>
+      <c r="T16">
+        <v>0.004667887572933815</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>1.070464333333333</v>
+      </c>
+      <c r="H17">
+        <v>3.211393</v>
+      </c>
+      <c r="I17">
+        <v>0.0115453170157582</v>
+      </c>
+      <c r="J17">
+        <v>0.0115453170157582</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.04165866666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.124976</v>
+      </c>
+      <c r="O17">
+        <v>0.001148337658206194</v>
+      </c>
+      <c r="P17">
+        <v>0.001148337658206194</v>
+      </c>
+      <c r="Q17">
+        <v>0.0445941168408889</v>
+      </c>
+      <c r="R17">
+        <v>0.401347051568</v>
+      </c>
+      <c r="S17">
+        <v>1.32579223051239E-05</v>
+      </c>
+      <c r="T17">
+        <v>1.32579223051239E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>20.10853233333334</v>
+      </c>
+      <c r="H18">
+        <v>60.32559700000001</v>
+      </c>
+      <c r="I18">
+        <v>0.2168772683785111</v>
+      </c>
+      <c r="J18">
+        <v>0.2168772683785111</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.08012266666666666</v>
+      </c>
+      <c r="N18">
+        <v>0.240368</v>
+      </c>
+      <c r="O18">
+        <v>0.00220861306352985</v>
+      </c>
+      <c r="P18">
+        <v>0.002208613063529849</v>
+      </c>
+      <c r="Q18">
+        <v>1.611149233299556</v>
+      </c>
+      <c r="R18">
+        <v>14.500343099696</v>
+      </c>
+      <c r="S18">
+        <v>0.0004789979681234487</v>
+      </c>
+      <c r="T18">
+        <v>0.0004789979681234487</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>20.10853233333334</v>
+      </c>
+      <c r="H19">
+        <v>60.32559700000001</v>
+      </c>
+      <c r="I19">
+        <v>0.2168772683785111</v>
+      </c>
+      <c r="J19">
+        <v>0.2168772683785111</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>21.488282</v>
+      </c>
+      <c r="N19">
+        <v>64.46484600000001</v>
+      </c>
+      <c r="O19">
+        <v>0.5923330102760767</v>
+      </c>
+      <c r="P19">
+        <v>0.5923330102760765</v>
+      </c>
+      <c r="Q19">
+        <v>432.0978133847848</v>
+      </c>
+      <c r="R19">
+        <v>3888.880320463063</v>
+      </c>
+      <c r="S19">
+        <v>0.128463565239096</v>
+      </c>
+      <c r="T19">
+        <v>0.128463565239096</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>20.10853233333334</v>
+      </c>
+      <c r="H20">
+        <v>60.32559700000001</v>
+      </c>
+      <c r="I20">
+        <v>0.2168772683785111</v>
+      </c>
+      <c r="J20">
+        <v>0.2168772683785111</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>14.66730366666666</v>
+      </c>
+      <c r="N20">
+        <v>44.00191099999999</v>
+      </c>
+      <c r="O20">
+        <v>0.4043100390021874</v>
+      </c>
+      <c r="P20">
+        <v>0.4043100390021873</v>
+      </c>
+      <c r="Q20">
+        <v>294.9379500239852</v>
+      </c>
+      <c r="R20">
+        <v>2654.441550215867</v>
+      </c>
+      <c r="S20">
+        <v>0.08768565683680367</v>
+      </c>
+      <c r="T20">
+        <v>0.08768565683680367</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>20.10853233333334</v>
+      </c>
+      <c r="H21">
+        <v>60.32559700000001</v>
+      </c>
+      <c r="I21">
+        <v>0.2168772683785111</v>
+      </c>
+      <c r="J21">
+        <v>0.2168772683785111</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.04165866666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.124976</v>
+      </c>
+      <c r="O21">
+        <v>0.001148337658206194</v>
+      </c>
+      <c r="P21">
+        <v>0.001148337658206194</v>
+      </c>
+      <c r="Q21">
+        <v>0.8376946456302224</v>
+      </c>
+      <c r="R21">
+        <v>7.539251810672002</v>
+      </c>
+      <c r="S21">
+        <v>0.0002490483344879357</v>
+      </c>
+      <c r="T21">
+        <v>0.0002490483344879357</v>
       </c>
     </row>
   </sheetData>
